--- a/src/main/webapp/WEB-INF/template/供应商新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/供应商新增导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9844E290-1F01-4FDA-A02D-206C9CC6DBFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F0A18E-7E57-44ED-99DC-774DD1B59839}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6948" yWindow="900" windowWidth="14160" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增" sheetId="1" r:id="rId1"/>
@@ -28,80 +28,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LeslieNicole</author>
-    <author>张廷豪</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BA9D47B4-12B8-4C71-A34E-BEBA88DBB67F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{F09661A9-732D-42C5-95BA-096B486841C0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>例子：四川</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{A1A06A2F-48BE-4E3B-924E-E24F8661FD5A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>例子：四川</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{6DF6B8AC-3157-4915-81B2-12C38636DC35}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="1" shapeId="0" xr:uid="{3341EE86-312A-4D07-B423-B19DD08EA84C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>例子：四川</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{E430390E-1516-484E-A2DE-71369201E605}">
       <text>
         <r>
           <rPr>
@@ -214,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发货至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退货市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,19 +159,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货至</t>
+    <t>注册资金(万元)</t>
+  </si>
+  <si>
+    <t>开户银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货送货天数</t>
+    <t>银行账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发货送货天数</t>
+    <t>户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册资金(万元)</t>
+    <t>最高付款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -299,19 +228,20 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -360,7 +290,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -384,8 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,32 +604,26 @@
   <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="3" customWidth="1"/>
+    <col min="1" max="3" width="12.21875" style="3" customWidth="1"/>
     <col min="4" max="6" width="7.88671875" style="3" customWidth="1"/>
     <col min="7" max="9" width="6.44140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.77734375" style="3" customWidth="1"/>
     <col min="11" max="12" width="7.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="7.88671875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" style="3" customWidth="1"/>
-    <col min="16" max="18" width="13.21875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" style="3" customWidth="1"/>
+    <col min="16" max="18" width="13.109375" style="3" customWidth="1"/>
     <col min="19" max="20" width="14.6640625" style="3" customWidth="1"/>
     <col min="21" max="23" width="7.88671875" style="3" customWidth="1"/>
     <col min="24" max="24" width="13.77734375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="12.109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="15.77734375" style="3" customWidth="1"/>
-    <col min="27" max="29" width="7.88671875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="9.88671875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="14.44140625" style="3" customWidth="1"/>
-    <col min="33" max="16384" width="11.21875" style="1"/>
+    <col min="25" max="27" width="7.88671875" style="3" customWidth="1"/>
+    <col min="28" max="32" width="13.6640625" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="11.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,7 +636,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -722,10 +648,10 @@
       <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -744,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>14</v>
@@ -755,47 +681,47 @@
       <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>29</v>
+      <c r="AF1" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -823,13 +749,13 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="9"/>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="9"/>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -857,13 +783,13 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="9"/>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -891,13 +817,13 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="9"/>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="9"/>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -925,13 +851,13 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="9"/>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -959,13 +885,13 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="9"/>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="9"/>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -993,13 +919,13 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="9"/>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1027,13 +953,13 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="9"/>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="9"/>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1061,13 +987,13 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="9"/>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1095,13 +1021,13 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="9"/>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="9"/>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1129,13 +1055,13 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="9"/>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1163,13 +1089,13 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="9"/>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1197,13 +1123,13 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="9"/>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1231,13 +1157,13 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="9"/>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1265,13 +1191,13 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="9"/>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1299,13 +1225,13 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="9"/>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -1333,13 +1259,13 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="9"/>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -1367,13 +1293,13 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="9"/>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -1401,13 +1327,13 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="9"/>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -1435,13 +1361,13 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="9"/>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="9"/>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -1469,13 +1395,13 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="9"/>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -1503,13 +1429,13 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="9"/>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="9"/>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -1537,13 +1463,13 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="9"/>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="9"/>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -1571,13 +1497,13 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="9"/>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="9"/>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -1605,13 +1531,13 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="9"/>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="9"/>
+      <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -1639,13 +1565,13 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="9"/>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="9"/>
+      <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -1673,13 +1599,13 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="9"/>
+      <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="9"/>
+      <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -1707,13 +1633,13 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="9"/>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="9"/>
+      <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -1741,13 +1667,13 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="9"/>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="9"/>
+      <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -1775,13 +1701,13 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="9"/>
+      <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="9"/>
+      <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -1809,13 +1735,13 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="9"/>
+      <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="9"/>
+      <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -1843,13 +1769,13 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="9"/>
+      <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -1877,13 +1803,13 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="9"/>
+      <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -1911,13 +1837,13 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="9"/>
+      <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -1945,13 +1871,13 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="9"/>
+      <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -1979,13 +1905,13 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="9"/>
+      <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -2013,13 +1939,13 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
-      <c r="AE37" s="9"/>
+      <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -2047,13 +1973,13 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
-      <c r="AE38" s="9"/>
+      <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -2081,13 +2007,13 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="9"/>
+      <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -2115,13 +2041,13 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="9"/>
+      <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -2149,13 +2075,13 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="9"/>
+      <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="9"/>
+      <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -2183,13 +2109,13 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="9"/>
+      <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -2217,13 +2143,13 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="9"/>
+      <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -2251,13 +2177,13 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="9"/>
+      <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="9"/>
+      <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -2285,13 +2211,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="9"/>
+      <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="9"/>
+      <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -2319,13 +2245,13 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
-      <c r="Y46" s="9"/>
+      <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="9"/>
+      <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -2353,13 +2279,13 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="9"/>
+      <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="9"/>
+      <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -2387,13 +2313,13 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="9"/>
+      <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="9"/>
+      <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -2421,13 +2347,13 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="9"/>
+      <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="9"/>
+      <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
@@ -2455,13 +2381,13 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Y50" s="9"/>
+      <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="9"/>
+      <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
@@ -2489,13 +2415,13 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="9"/>
+      <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="9"/>
+      <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
@@ -2523,13 +2449,13 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="9"/>
+      <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="9"/>
+      <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
@@ -4200,12 +4126,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52" xr:uid="{E5EF5303-9D86-4F72-8773-2466F5DC333C}">
       <formula1>"总代理,省代理,市代理,单店客户,生产商,品牌商,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y52 AE2:AE52" xr:uid="{9FA0CF95-193D-482C-90AD-629B884CBD46}">
-      <formula1>"收货地址,货运站"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/供应商新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/供应商新增导入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F0A18E-7E57-44ED-99DC-774DD1B59839}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF48614-BC34-482E-BC23-A5D59EBCC47F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6948" yWindow="900" windowWidth="14160" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>LeslieNicole</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BA9D47B4-12B8-4C71-A34E-BEBA88DBB67F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A4B8B66F-47FC-4B53-9D90-179571F906DE}">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>供应商名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,26 @@
     <t>最高付款金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -236,11 +256,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,11 +309,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,13 +337,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -626,7 +646,7 @@
     <col min="33" max="16384" width="11.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -696,7 +716,7 @@
       <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="5" t="s">
@@ -708,7 +728,7 @@
       <c r="AA1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="6" t="s">
@@ -723,8 +743,23 @@
       <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2"/>
@@ -736,8 +771,8 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -757,8 +792,13 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="2"/>
@@ -791,8 +831,13 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2"/>
@@ -825,8 +870,13 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="2"/>
@@ -859,8 +909,13 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
@@ -893,8 +948,13 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
@@ -927,8 +987,13 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
@@ -961,8 +1026,13 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -995,8 +1065,13 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1029,8 +1104,13 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -1063,8 +1143,13 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -1097,8 +1182,13 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -1131,8 +1221,13 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -1165,8 +1260,13 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -1199,8 +1299,13 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -1233,8 +1338,13 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -1267,8 +1377,13 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -1301,8 +1416,13 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
@@ -1335,8 +1455,13 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
@@ -1369,8 +1494,13 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
@@ -1403,8 +1533,13 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
@@ -1437,8 +1572,13 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
@@ -1471,8 +1611,13 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
@@ -1505,8 +1650,13 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
@@ -1539,8 +1689,13 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
@@ -1573,8 +1728,13 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
@@ -1607,8 +1767,13 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
@@ -1641,8 +1806,13 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
@@ -1675,8 +1845,13 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
@@ -1709,8 +1884,13 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
@@ -1743,8 +1923,13 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
@@ -1777,8 +1962,13 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
@@ -1811,8 +2001,13 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
@@ -1845,8 +2040,13 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
@@ -1879,8 +2079,13 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
@@ -1913,8 +2118,13 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
@@ -1947,8 +2157,13 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
@@ -1981,8 +2196,13 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
@@ -2015,8 +2235,13 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
@@ -2049,8 +2274,13 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -2083,8 +2313,13 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
@@ -2117,8 +2352,13 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
@@ -2151,8 +2391,13 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
@@ -2185,8 +2430,13 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="2"/>
@@ -2219,8 +2469,13 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
       <c r="C46" s="2"/>
@@ -2253,8 +2508,13 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="2"/>
@@ -2287,8 +2547,13 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="2"/>
@@ -2321,8 +2586,13 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="2"/>
@@ -2355,8 +2625,13 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
@@ -2389,8 +2664,13 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="2"/>
@@ -2423,8 +2703,13 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
       <c r="C52" s="2"/>
@@ -2457,8 +2742,13 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2491,8 +2781,13 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2525,8 +2820,13 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2559,8 +2859,13 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2593,8 +2898,13 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2627,8 +2937,13 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2661,8 +2976,13 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2695,8 +3015,13 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2729,8 +3054,13 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2763,8 +3093,13 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2797,8 +3132,13 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2831,8 +3171,13 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2865,8 +3210,13 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2899,8 +3249,13 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2933,8 +3288,13 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2967,8 +3327,13 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3001,8 +3366,13 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3035,8 +3405,13 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11"/>
+      <c r="AJ69" s="11"/>
+      <c r="AK69" s="11"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3069,8 +3444,13 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="11"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3103,8 +3483,13 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3137,8 +3522,13 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3171,8 +3561,13 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3205,8 +3600,13 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3239,8 +3639,13 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="11"/>
+      <c r="AK75" s="11"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3273,8 +3678,13 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="11"/>
+      <c r="AJ76" s="11"/>
+      <c r="AK76" s="11"/>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3307,8 +3717,13 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="11"/>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3341,8 +3756,13 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG78" s="11"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" s="11"/>
+      <c r="AJ78" s="11"/>
+      <c r="AK78" s="11"/>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3375,8 +3795,13 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="11"/>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3409,8 +3834,13 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG80" s="11"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3443,8 +3873,13 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG81" s="11"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3477,8 +3912,13 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG82" s="11"/>
+      <c r="AH82" s="11"/>
+      <c r="AI82" s="11"/>
+      <c r="AJ82" s="11"/>
+      <c r="AK82" s="11"/>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3511,8 +3951,13 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG83" s="11"/>
+      <c r="AH83" s="11"/>
+      <c r="AI83" s="11"/>
+      <c r="AJ83" s="11"/>
+      <c r="AK83" s="11"/>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3545,8 +3990,13 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3579,8 +4029,13 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG85" s="11"/>
+      <c r="AH85" s="11"/>
+      <c r="AI85" s="11"/>
+      <c r="AJ85" s="11"/>
+      <c r="AK85" s="11"/>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3613,8 +4068,13 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG86" s="11"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="11"/>
+      <c r="AJ86" s="11"/>
+      <c r="AK86" s="11"/>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3647,8 +4107,13 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG87" s="11"/>
+      <c r="AH87" s="11"/>
+      <c r="AI87" s="11"/>
+      <c r="AJ87" s="11"/>
+      <c r="AK87" s="11"/>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3681,8 +4146,13 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG88" s="11"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11"/>
+      <c r="AJ88" s="11"/>
+      <c r="AK88" s="11"/>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3715,8 +4185,13 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG89" s="11"/>
+      <c r="AH89" s="11"/>
+      <c r="AI89" s="11"/>
+      <c r="AJ89" s="11"/>
+      <c r="AK89" s="11"/>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3749,8 +4224,13 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG90" s="11"/>
+      <c r="AH90" s="11"/>
+      <c r="AI90" s="11"/>
+      <c r="AJ90" s="11"/>
+      <c r="AK90" s="11"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3783,8 +4263,13 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG91" s="11"/>
+      <c r="AH91" s="11"/>
+      <c r="AI91" s="11"/>
+      <c r="AJ91" s="11"/>
+      <c r="AK91" s="11"/>
+    </row>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3817,8 +4302,13 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG92" s="11"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11"/>
+      <c r="AJ92" s="11"/>
+      <c r="AK92" s="11"/>
+    </row>
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3851,8 +4341,13 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG93" s="11"/>
+      <c r="AH93" s="11"/>
+      <c r="AI93" s="11"/>
+      <c r="AJ93" s="11"/>
+      <c r="AK93" s="11"/>
+    </row>
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3885,8 +4380,13 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG94" s="11"/>
+      <c r="AH94" s="11"/>
+      <c r="AI94" s="11"/>
+      <c r="AJ94" s="11"/>
+      <c r="AK94" s="11"/>
+    </row>
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3919,8 +4419,13 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG95" s="11"/>
+      <c r="AH95" s="11"/>
+      <c r="AI95" s="11"/>
+      <c r="AJ95" s="11"/>
+      <c r="AK95" s="11"/>
+    </row>
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3953,8 +4458,13 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
-    </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG96" s="11"/>
+      <c r="AH96" s="11"/>
+      <c r="AI96" s="11"/>
+      <c r="AJ96" s="11"/>
+      <c r="AK96" s="11"/>
+    </row>
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3987,8 +4497,13 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG97" s="11"/>
+      <c r="AH97" s="11"/>
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="11"/>
+      <c r="AK97" s="11"/>
+    </row>
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4021,8 +4536,13 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG98" s="11"/>
+      <c r="AH98" s="11"/>
+      <c r="AI98" s="11"/>
+      <c r="AJ98" s="11"/>
+      <c r="AK98" s="11"/>
+    </row>
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4055,8 +4575,13 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG99" s="11"/>
+      <c r="AH99" s="11"/>
+      <c r="AI99" s="11"/>
+      <c r="AJ99" s="11"/>
+      <c r="AK99" s="11"/>
+    </row>
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4089,8 +4614,13 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-    </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG100" s="11"/>
+      <c r="AH100" s="11"/>
+      <c r="AI100" s="11"/>
+      <c r="AJ100" s="11"/>
+      <c r="AK100" s="11"/>
+    </row>
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4123,11 +4653,16 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="11"/>
+      <c r="AI101" s="11"/>
+      <c r="AJ101" s="11"/>
+      <c r="AK101" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52" xr:uid="{E5EF5303-9D86-4F72-8773-2466F5DC333C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52" xr:uid="{E71A5FFD-1BDF-4FBB-A9D7-3DBF72851756}">
       <formula1>"总代理,省代理,市代理,单店客户,生产商,品牌商,其他"</formula1>
     </dataValidation>
   </dataValidations>
